--- a/test1/mwb.xlsx
+++ b/test1/mwb.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14000" tabRatio="500"/>
+    <workbookView xWindow="12260" yWindow="3040" windowWidth="25600" windowHeight="14000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工作表4-&gt;工作表4改</t>
+    <t>工作表4-&gt;x_x_x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -518,7 +518,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
